--- a/Data/Samples.xlsx
+++ b/Data/Samples.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Mekanos" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -288,15 +287,6 @@
     <t>Primary tumour</t>
   </si>
   <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Object_first</t>
-  </si>
-  <si>
-    <t>Sample_first</t>
-  </si>
-  <si>
     <t>E:\Data_IBHGC</t>
   </si>
   <si>
@@ -306,25 +296,25 @@
     <t>E:\Mekanos_clinical_cases</t>
   </si>
   <si>
-    <t>Available_scans</t>
-  </si>
-  <si>
     <t>E:\Data_WL</t>
   </si>
   <si>
-    <t>984mic(VA1, VA2, AL, SA, EC); 656mic(VA1, VA2); 328mic(VA1, VA2, AL, SA, EC)</t>
-  </si>
-  <si>
-    <t>NRRD(VB, VB2)</t>
-  </si>
-  <si>
-    <t>328mic(VB_VA, VB_A)</t>
-  </si>
-  <si>
     <t>Post-defect(def_VB, def_VB_F); Pre-defect_410mic(def_VB_transformed, def_VB_F_transformed, HRpQCT_VB); Pre-defect_738mic(def_VB_transformed, def_VB_F_transformed, HRpQCT_VB)</t>
   </si>
   <si>
     <t>FOV20(); FOV36()</t>
+  </si>
+  <si>
+    <t>Available_segmentations</t>
+  </si>
+  <si>
+    <t>984mic_VB; 984mic_VB2; 984mic_VB_AL; 984mic_VB_SA; 984mic_VB_EC; 656mic_VB; 656mic_VB2; 328mic_VB; 328mic_VB2;328mic_VB_AL; 328mic_VB_SA; 328mic_VB_EC</t>
+  </si>
+  <si>
+    <t>VB; VB2</t>
+  </si>
+  <si>
+    <t>328mic_VB_VA; 328mic_VB_A</t>
   </si>
 </sst>
 </file>
@@ -698,20 +688,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -725,13 +714,10 @@
         <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -742,16 +728,13 @@
         <v>2011</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -762,16 +745,13 @@
         <v>2018</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -785,13 +765,10 @@
         <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -802,16 +779,13 @@
         <v>2022</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -822,13 +796,10 @@
         <v>2022</v>
       </c>
       <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
         <v>92</v>
-      </c>
-      <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Samples.xlsx
+++ b/Data/Samples.xlsx
@@ -691,7 +691,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/Data/Samples.xlsx
+++ b/Data/Samples.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -218,9 +218,6 @@
     <t>Main folder</t>
   </si>
   <si>
-    <t>E:\Artorg_data_2021_metastatic_vertebrae</t>
-  </si>
-  <si>
     <t>T11</t>
   </si>
   <si>
@@ -287,41 +284,125 @@
     <t>Primary tumour</t>
   </si>
   <si>
-    <t>E:\Data_IBHGC</t>
-  </si>
-  <si>
-    <t>E:\Data_L3</t>
-  </si>
-  <si>
-    <t>E:\Mekanos_clinical_cases</t>
-  </si>
-  <si>
-    <t>E:\Data_WL</t>
-  </si>
-  <si>
-    <t>Post-defect(def_VB, def_VB_F); Pre-defect_410mic(def_VB_transformed, def_VB_F_transformed, HRpQCT_VB); Pre-defect_738mic(def_VB_transformed, def_VB_F_transformed, HRpQCT_VB)</t>
-  </si>
-  <si>
-    <t>FOV20(); FOV36()</t>
-  </si>
-  <si>
     <t>Available_segmentations</t>
   </si>
   <si>
-    <t>984mic_VB; 984mic_VB2; 984mic_VB_AL; 984mic_VB_SA; 984mic_VB_EC; 656mic_VB; 656mic_VB2; 328mic_VB; 328mic_VB2;328mic_VB_AL; 328mic_VB_SA; 328mic_VB_EC</t>
-  </si>
-  <si>
     <t>VB; VB2</t>
   </si>
   <si>
     <t>328mic_VB_VA; 328mic_VB_A</t>
+  </si>
+  <si>
+    <t>H:\Lyos_JPR_data_2011_vertebrae_L3_no_default_with_endplate</t>
+  </si>
+  <si>
+    <t>H:\IBHGC_data_2017_vertebrae_L1-L3_no_default_with_endplate_390um</t>
+  </si>
+  <si>
+    <t>H:\Artorg_data_2021_T5-L5_metastatic_vertebrae_no_endplate_25um</t>
+  </si>
+  <si>
+    <t>H:\Mekanos_clinical_cases</t>
+  </si>
+  <si>
+    <t>H:\Data_WL</t>
+  </si>
+  <si>
+    <t>01_2005</t>
+  </si>
+  <si>
+    <t>01_2006</t>
+  </si>
+  <si>
+    <t>02_2006</t>
+  </si>
+  <si>
+    <t>2a_2005</t>
+  </si>
+  <si>
+    <t>2b_2005</t>
+  </si>
+  <si>
+    <t>03_2006</t>
+  </si>
+  <si>
+    <t>04_2006</t>
+  </si>
+  <si>
+    <t>05_2006</t>
+  </si>
+  <si>
+    <t>06_2006</t>
+  </si>
+  <si>
+    <t>08_2006</t>
+  </si>
+  <si>
+    <t>10_2006</t>
+  </si>
+  <si>
+    <t>USOD18433</t>
+  </si>
+  <si>
+    <t>USOD20307</t>
+  </si>
+  <si>
+    <t>984mic_VB; 984mic_VB2; 984mic_VB_AL; 984mic_VB_SA; 984mic_VB_EC; 984mic_VB_EF; 656mic_VB; 656mic_VB2; 328mic_VB; 328mic_VB2;328mic_VB_AL; 328mic_VB_SA; 328mic_VB_EC;</t>
+  </si>
+  <si>
+    <t>01017_L5</t>
+  </si>
+  <si>
+    <t>01017_L4</t>
+  </si>
+  <si>
+    <t>01017_L3</t>
+  </si>
+  <si>
+    <t>01017_L2</t>
+  </si>
+  <si>
+    <t>01017_L1</t>
+  </si>
+  <si>
+    <t>01017_T12</t>
+  </si>
+  <si>
+    <t>01017_T11</t>
+  </si>
+  <si>
+    <t>01017_T10</t>
+  </si>
+  <si>
+    <t>01017_T9</t>
+  </si>
+  <si>
+    <t>01017_T8</t>
+  </si>
+  <si>
+    <t>01036_L5</t>
+  </si>
+  <si>
+    <t>01036_L4</t>
+  </si>
+  <si>
+    <t>01036_L3</t>
+  </si>
+  <si>
+    <t>01036_L2</t>
+  </si>
+  <si>
+    <t>01036_L1</t>
+  </si>
+  <si>
+    <t>L1_def_VB_transformed; L1_def_VB_F_transformed; L1_HRpQCT_VB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +429,20 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -363,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -384,12 +479,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -407,6 +511,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,19 +800,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -714,10 +826,10 @@
         <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -728,13 +840,13 @@
         <v>2011</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -745,13 +857,13 @@
         <v>2018</v>
       </c>
       <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
         <v>87</v>
       </c>
-      <c r="E3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -762,45 +874,45 @@
         <v>2020</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="17">
         <v>2022</v>
       </c>
-      <c r="D5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+      <c r="D5" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="17">
         <v>2022</v>
       </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="17" t="s">
         <v>92</v>
       </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1717,13 +1829,13 @@
         <v>10</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5">
@@ -1737,16 +1849,16 @@
         <v>30</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="15">
         <v>4910</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I2" s="15">
         <v>4740</v>
@@ -1769,10 +1881,10 @@
         <v>7570</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I3" s="15">
         <v>6880</v>
@@ -1789,16 +1901,16 @@
         <v>30</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="15">
         <v>7460</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" s="15">
         <v>6200</v>
@@ -1815,16 +1927,16 @@
         <v>30</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="15">
         <v>4430</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5" s="15">
         <v>3820</v>
@@ -1847,10 +1959,10 @@
         <v>5790</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" s="15">
         <v>4830</v>
@@ -1871,10 +1983,10 @@
       </c>
       <c r="E7" s="15"/>
       <c r="G7" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" s="15">
         <v>27930</v>
@@ -1891,14 +2003,14 @@
         <v>29</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="15"/>
       <c r="G8" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8" s="15">
         <v>21630</v>
@@ -1915,14 +2027,14 @@
         <v>29</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="15"/>
       <c r="G9" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I9" s="15">
         <v>22660</v>
@@ -1939,14 +2051,14 @@
         <v>29</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="15"/>
       <c r="G10" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="15">
         <v>45510</v>
@@ -1969,10 +2081,10 @@
         <v>6090</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" s="15">
         <v>5490</v>
@@ -1989,16 +2101,16 @@
         <v>29</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="15">
         <v>13780</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I12" s="15">
         <v>15410</v>
@@ -2015,16 +2127,16 @@
         <v>29</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="15">
         <v>5840</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13" s="15">
         <v>5990</v>
@@ -2041,16 +2153,16 @@
         <v>29</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="15">
         <v>12010</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14" s="15">
         <v>10160</v>
@@ -2073,10 +2185,10 @@
         <v>8210</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15" s="15">
         <v>8310</v>
@@ -2093,16 +2205,16 @@
         <v>29</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="15">
         <v>6270</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" s="15">
         <v>5660</v>
@@ -2119,16 +2231,16 @@
         <v>29</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="15">
         <v>7490</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I17" s="15">
         <v>8340</v>
@@ -2145,16 +2257,16 @@
         <v>29</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="15">
         <v>9610</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I18" s="15">
         <v>8970</v>
@@ -2171,16 +2283,16 @@
         <v>29</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" s="15">
         <v>7690</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I19" s="15">
         <v>8800</v>
@@ -2197,16 +2309,16 @@
         <v>29</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="15">
         <v>12990</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" s="15">
         <v>14350</v>
@@ -2229,10 +2341,10 @@
         <v>9080</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="15">
         <v>9110</v>
@@ -2253,10 +2365,10 @@
       </c>
       <c r="E22" s="15"/>
       <c r="G22" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="15">
         <v>21260</v>
@@ -2273,16 +2385,16 @@
         <v>29</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="15">
         <v>1890</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="15">
         <v>3260</v>
@@ -2299,14 +2411,14 @@
         <v>30</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" s="15"/>
       <c r="G24" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I24" s="15">
         <v>13620</v>
@@ -2323,16 +2435,16 @@
         <v>30</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="15">
         <v>11500</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I25" s="15">
         <v>10950</v>
@@ -2349,16 +2461,16 @@
         <v>30</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="15">
         <v>5730</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I26" s="15">
         <v>8200</v>
@@ -2375,16 +2487,16 @@
         <v>30</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" s="15">
         <v>11560</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I27" s="15">
         <v>14290</v>
@@ -2401,16 +2513,16 @@
         <v>30</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" s="15">
         <v>5320</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I28" s="15">
         <v>9690</v>
@@ -2433,10 +2545,10 @@
         <v>10850</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I29" s="15">
         <v>12220</v>
@@ -2459,10 +2571,10 @@
         <v>5940</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I30" s="15">
         <v>6600</v>
@@ -2479,16 +2591,16 @@
         <v>29</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" s="15">
         <v>4160</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I31" s="15">
         <v>4930</v>
@@ -2505,16 +2617,16 @@
         <v>29</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" s="15">
         <v>3420</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I32" s="15">
         <v>4590</v>
@@ -2537,10 +2649,10 @@
         <v>5800</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I33" s="15">
         <v>8780</v>
@@ -2557,16 +2669,16 @@
         <v>29</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E34" s="15">
         <v>5900</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I34" s="15">
         <v>9960</v>
@@ -2589,10 +2701,10 @@
         <v>10830</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I35" s="15">
         <v>13690</v>
@@ -2609,16 +2721,16 @@
         <v>30</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36" s="15">
         <v>12270</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I36" s="15">
         <v>13450</v>
@@ -2635,14 +2747,14 @@
         <v>30</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E37" s="15"/>
       <c r="G37" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I37" s="15">
         <v>16190.000000000002</v>
@@ -2659,16 +2771,16 @@
         <v>30</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E38" s="15">
         <v>11070</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I38" s="15">
         <v>11780</v>
@@ -2685,16 +2797,16 @@
         <v>29</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E39" s="15">
         <v>8480</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I39" s="15">
         <v>13170</v>
@@ -2711,16 +2823,16 @@
         <v>29</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E40" s="15">
         <v>7080</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I40" s="15">
         <v>7090</v>
@@ -2737,16 +2849,16 @@
         <v>29</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E41" s="15">
         <v>4330</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I41" s="15">
         <v>4630</v>
@@ -2763,16 +2875,16 @@
         <v>29</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E42" s="15">
         <v>5590</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I42" s="15">
         <v>6180</v>
@@ -2789,16 +2901,16 @@
         <v>29</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E43" s="15">
         <v>5240</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I43" s="15">
         <v>7380</v>
@@ -2821,10 +2933,10 @@
         <v>4980</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I44" s="15">
         <v>6600</v>
@@ -2841,16 +2953,16 @@
         <v>29</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E45" s="15">
         <v>4640</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I45" s="15">
         <v>5170</v>
@@ -2867,16 +2979,16 @@
         <v>29</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46" s="15">
         <v>4820</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I46" s="15">
         <v>3920</v>
@@ -2889,26 +3001,440 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75">
+      <c r="A2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="19">
+        <v>3150</v>
+      </c>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="19">
+        <v>2670</v>
+      </c>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="A4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="19">
+        <v>2010</v>
+      </c>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="A5" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="19">
+        <v>8320</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1460</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="19">
+        <v>2670</v>
+      </c>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="A8" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="19">
+        <v>4110</v>
+      </c>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75">
+      <c r="A9" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="19">
+        <v>2930</v>
+      </c>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75">
+      <c r="A10" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="19">
+        <v>3350</v>
+      </c>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="19">
+        <v>3500</v>
+      </c>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75">
+      <c r="A12" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="19">
+        <v>4330</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A13" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="20">
+        <v>1250</v>
+      </c>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75">
+      <c r="A14" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="19">
+        <v>7670</v>
+      </c>
+      <c r="F14" s="17"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>